--- a/Examples/HelpExamples.xlsx
+++ b/Examples/HelpExamples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Excel-DNA\XFunctions\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2160674F-6F73-4345-86EC-98B3DC33C335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B91C19E-236E-4DAB-9110-C60247C92E6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="2280" windowWidth="21600" windowHeight="11160" xr2:uid="{D5122D25-816F-4AEC-A929-CABFF95EF948}"/>
+    <workbookView xWindow="2280" yWindow="3240" windowWidth="21600" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{D5122D25-816F-4AEC-A929-CABFF95EF948}"/>
   </bookViews>
   <sheets>
     <sheet name="XLOOKUP 1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="XMATCH 4" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -763,7 +764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105464BA-F696-4614-9117-A2CA6E66FBB5}">
   <dimension ref="B1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -923,7 +924,7 @@
   <dimension ref="B1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,9 +958,9 @@
       <c r="E2" s="7">
         <v>46523</v>
       </c>
-      <c r="F2" s="4" t="e" cm="1">
-        <f t="array" ref="F2">_xll.XLOOKUP(E2,C2:C7,B2:B7)</f>
-        <v>#N/A</v>
+      <c r="F2" s="4" cm="1">
+        <f t="array" ref="F2">_xll.XLOOKUP(E2,C2:C7,B2:B7,1,1)</f>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -1430,7 +1431,7 @@
   <dimension ref="C2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,7 +1489,7 @@
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,9 +1531,9 @@
       <c r="E4" t="s">
         <v>77</v>
       </c>
-      <c r="F4" t="e" cm="1">
-        <f t="array" ref="F4">_xll.XMATCH(F2, C3:C9, -1)</f>
-        <v>#N/A</v>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">_xll.XMATCH(F2, C3:C9, 1)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -1829,7 +1830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7511B1-04C3-4510-9876-9AB4F8DA456D}">
   <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1848,9 +1849,9 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="e" cm="1">
+      <c r="B3" cm="1">
         <f t="array" ref="B3">_xll.XMATCH(4.5,{5,4,3,2,1},1)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>79</v>

--- a/Examples/HelpExamples.xlsx
+++ b/Examples/HelpExamples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22022"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Excel-DNA\XFunctions\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B91C19E-236E-4DAB-9110-C60247C92E6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6642C8-9476-48DE-B110-17C6C55CB4E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="3240" windowWidth="21600" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{D5122D25-816F-4AEC-A929-CABFF95EF948}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5122D25-816F-4AEC-A929-CABFF95EF948}"/>
   </bookViews>
   <sheets>
     <sheet name="XLOOKUP 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="XMATCH 4" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
   <si>
     <t>Country</t>
   </si>
@@ -266,9 +265,6 @@
     <t>Position</t>
   </si>
   <si>
-    <t>Gra??</t>
-  </si>
-  <si>
     <t>Sales Rep</t>
   </si>
   <si>
@@ -315,6 +311,12 @@
   </si>
   <si>
     <t>Month</t>
+  </si>
+  <si>
+    <t>Grap?e</t>
+  </si>
+  <si>
+    <t>Grap~?e</t>
   </si>
 </sst>
 </file>
@@ -762,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105464BA-F696-4614-9117-A2CA6E66FBB5}">
-  <dimension ref="B1:G11"/>
+  <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +778,7 @@
     <col min="5" max="5" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -790,7 +792,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -804,11 +806,15 @@
         <v>7</v>
       </c>
       <c r="G2" t="str" cm="1">
-        <f t="array" ref="G2">_xll.XLOOKUP(F2, B2:B11, D2:D11)</f>
+        <f t="array" ref="G2">_xludf.XLOOKUP(F2, B2:B11, D2:D11)</f>
         <v>+55</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I2" t="str" cm="1">
+        <f t="array" ref="I2">_xll.XLOOKUP.FROM.ADDIN(F2, B2:B11, D2:D11)</f>
+        <v>+55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -819,7 +825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -830,7 +836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -841,7 +847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -852,7 +858,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -863,7 +869,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -874,7 +880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -885,7 +891,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -896,7 +902,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -921,10 +927,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED4D83D-DBEA-42CE-876A-144CA0F1F06D}">
-  <dimension ref="B1:F7"/>
+  <dimension ref="B1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,7 +939,7 @@
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="10" t="s">
         <v>34</v>
       </c>
@@ -948,7 +954,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="4">
         <v>0.1</v>
       </c>
@@ -958,12 +964,16 @@
       <c r="E2" s="7">
         <v>46523</v>
       </c>
-      <c r="F2" s="4" cm="1">
-        <f t="array" ref="F2">_xll.XLOOKUP(E2,C2:C7,B2:B7,1,1)</f>
+      <c r="F2" s="4">
+        <f>_xlfn.XLOOKUP(E2,C2:C7,B2:B7,1,1)</f>
         <v>0.24</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H2" cm="1">
+        <f t="array" ref="H2">_xll.XLOOKUP.FROM.ADDIN(E2,C2:C7,B2:B7,1,1)</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <v>0.22</v>
       </c>
@@ -971,7 +981,7 @@
         <v>39475</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>0.24</v>
       </c>
@@ -979,7 +989,7 @@
         <v>84200</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>0.32</v>
       </c>
@@ -987,7 +997,7 @@
         <v>160726</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>0.35</v>
       </c>
@@ -995,7 +1005,7 @@
         <v>204100</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>0.37</v>
       </c>
@@ -1010,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C99C514-E27E-423B-AECB-0EEE6B7BE107}">
-  <dimension ref="B2:G18"/>
+  <dimension ref="B2:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,7 +1034,7 @@
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="10" t="s">
         <v>52</v>
       </c>
@@ -1038,24 +1048,36 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="9" cm="1">
-        <f t="array" ref="D3">_xll.XLOOKUP(D2, $B6:$B17, _xll.XLOOKUP($C3, $C5:$G5,$C6:$G17))</f>
+        <f t="array" ref="D3">_xludf.XLOOKUP(D2, $B6:$B17, _xludf.XLOOKUP($C3, $C5:$G5,$C6:$G17))</f>
         <v>25000</v>
       </c>
       <c r="E3" s="9" cm="1">
-        <f t="array" ref="E3">_xll.XLOOKUP(E2, $B6:$B17, _xll.XLOOKUP($C3, $C5:$G5,$C6:$G17))</f>
+        <f t="array" ref="E3">_xludf.XLOOKUP(E2, $B6:$B17, _xludf.XLOOKUP($C3, $C5:$G5,$C6:$G17))</f>
         <v>19342</v>
       </c>
       <c r="F3" s="11" cm="1">
-        <f t="array" ref="F3">_xll.XLOOKUP(F2, $B6:$B17, _xll.XLOOKUP($C3, $C5:$G5,$C6:$G17))</f>
+        <f t="array" ref="F3">_xludf.XLOOKUP(F2, $B6:$B17, _xludf.XLOOKUP($C3, $C5:$G5,$C6:$G17))</f>
         <v>0.29299999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3" cm="1">
+        <f t="array" ref="I3">_xll.XLOOKUP.FROM.ADDIN(D2, $B6:$B17, _xlfn.XLOOKUP($C3, $C5:$G5,$C6:$G17))</f>
+        <v>25000</v>
+      </c>
+      <c r="J3" cm="1">
+        <f t="array" ref="J3">_xll.XLOOKUP.FROM.ADDIN(E2, $B6:$B17, _xlfn.XLOOKUP($C3, $C5:$G5,$C6:$G17))</f>
+        <v>19342</v>
+      </c>
+      <c r="K3" cm="1">
+        <f t="array" ref="K3">_xll.XLOOKUP.FROM.ADDIN(F2, $B6:$B17, _xlfn.XLOOKUP($C3, $C5:$G5,$C6:$G17))</f>
+        <v>0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>37</v>
       </c>
@@ -1075,7 +1097,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>38</v>
       </c>
@@ -1096,7 +1118,7 @@
         <v>308950</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>39</v>
       </c>
@@ -1117,7 +1139,7 @@
         <v>-186950</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>40</v>
       </c>
@@ -1142,14 +1164,14 @@
         <v>122000</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -1170,7 +1192,7 @@
         <v>-2304</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>47</v>
       </c>
@@ -1191,7 +1213,7 @@
         <v>-2472</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>48</v>
       </c>
@@ -1216,14 +1238,14 @@
         <v>117224</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>49</v>
       </c>
@@ -1244,14 +1266,14 @@
         <v>-21101</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>50</v>
       </c>
@@ -1306,15 +1328,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA1548A-B826-4956-9B7F-26C08FA20866}">
-  <dimension ref="C2:F10"/>
+  <dimension ref="C2:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="10" t="s">
         <v>55</v>
       </c>
@@ -1325,19 +1347,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
         <v>58</v>
       </c>
       <c r="E3" s="8">
-        <f>SUM(_xll.XLOOKUP(C3,C6:C10,F6:F10):_xll.XLOOKUP(D3,C6:C10,F6:F10))</f>
-        <v>110.69</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f>SUM(_xlfn.XLOOKUP(C3,C6:C10,F6:F10):_xlfn.XLOOKUP(D3,C6:C10,F6:F10))</f>
+        <v>122.59</v>
+      </c>
+      <c r="G3">
+        <f>SUM(_xll.XLOOKUP.FROM.ADDIN(C3,C6:C10,F6:F10):_xll.XLOOKUP.FROM.ADDIN(D3,C6:C10,F6:F10))</f>
+        <v>122.59</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
         <v>59</v>
       </c>
@@ -1351,7 +1377,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>62</v>
       </c>
@@ -1365,7 +1391,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>57</v>
       </c>
@@ -1379,7 +1405,7 @@
         <v>75.28</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>63</v>
       </c>
@@ -1393,7 +1419,7 @@
         <v>18.16</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>58</v>
       </c>
@@ -1407,7 +1433,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>64</v>
       </c>
@@ -1431,7 +1457,7 @@
   <dimension ref="C2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,16 +1478,20 @@
         <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" cm="1">
-        <f t="array" ref="F3">_xll.XMATCH(E3, C3:C7, 2)</f>
+        <v>84</v>
+      </c>
+      <c r="F3">
+        <f>_xlfn.XMATCH(E3, C3:C7, 2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>57</v>
+        <v>83</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">_xll.XMATCH.FROM.ADDIN(E3, C3:C7, 2)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
@@ -1489,7 +1519,7 @@
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,13 +1531,13 @@
   <sheetData>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="E2" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="9">
         <v>15000</v>
@@ -1515,7 +1545,7 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="9">
         <v>42000</v>
@@ -1523,30 +1553,34 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="9">
         <v>35000</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" cm="1">
-        <f t="array" ref="F4">_xll.XMATCH(F2, C3:C9, 1)</f>
+        <f t="array" ref="F4">_xludf.XMATCH(F2, C3:C9, 1)</f>
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="9">
         <v>25000</v>
       </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">_xll.XMATCH.FROM.ADDIN(F2, C3:C9, 1)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="9">
         <v>15901</v>
@@ -1554,7 +1588,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="9">
         <v>13801</v>
@@ -1562,7 +1596,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="9">
         <v>12181</v>
@@ -1570,7 +1604,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="9">
         <v>9201</v>
@@ -1578,13 +1612,13 @@
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="E12" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="9">
         <v>15000</v>
@@ -1592,7 +1626,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="9">
         <v>42000</v>
@@ -1600,30 +1634,34 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="9">
         <v>35000</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14">
-        <f>MATCH(F12, C13:C19, -1)</f>
-        <v>4</v>
+        <f>_xlfn.XMATCH(F12, C13:C19, -1)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="9">
         <v>25000</v>
       </c>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">_xll.XMATCH.FROM.ADDIN(F12, C13:C19, -1)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="9">
         <v>15901</v>
@@ -1631,7 +1669,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="9">
         <v>13801</v>
@@ -1639,7 +1677,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="9">
         <v>12181</v>
@@ -1647,7 +1685,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="9">
         <v>9201</v>
@@ -1666,7 +1704,7 @@
   <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,10 +1714,10 @@
   <sheetData>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>45</v>
@@ -1687,17 +1725,20 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="9" cm="1">
-        <f t="array" ref="D3">INDEX(C6:E12, _xll.XMATCH(B3, B6:B12), _xll.XMATCH(C3, C5:E5))</f>
+        <f t="array" ref="D3">INDEX(C6:E12, _xlfn.XMATCH(B3, B6:B12), _xlfn.XMATCH(C3, C5:E5))</f>
         <v>8492</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="F3" s="9" cm="1">
+        <f t="array" ref="F3">INDEX(C6:E12, _xll.XMATCH.FROM.ADDIN(B3, B6:B12), _xll.XMATCH.FROM.ADDIN(C3, C5:E5))</f>
+        <v>8492</v>
+      </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D4" s="9"/>
@@ -1706,22 +1747,22 @@
     </row>
     <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="9">
         <v>3174</v>
@@ -1736,7 +1777,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="9">
         <v>1656</v>
@@ -1751,7 +1792,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="9">
         <v>2706</v>
@@ -1766,7 +1807,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="9">
         <v>4930</v>
@@ -1781,7 +1822,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="9">
         <v>6394</v>
@@ -1795,7 +1836,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="9">
         <v>2539</v>
@@ -1809,7 +1850,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="9">
         <v>4468</v>
@@ -1830,31 +1871,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7511B1-04C3-4510-9876-9AB4F8DA456D}">
   <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" cm="1">
-        <f t="array" ref="B2">_xll.XMATCH(4,{5,4,3,2,1})</f>
+        <f t="array" ref="B2">_xludf.XMATCH(4,{5,4,3,2,1})</f>
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" cm="1">
-        <f t="array" ref="B3">_xll.XMATCH(4.5,{5,4,3,2,1},1)</f>
+        <f t="array" ref="B3">_xludf.XMATCH(4.5,{5,4,3,2,1},1)</f>
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" cm="1">
+        <f t="array" ref="B5">_xll.XMATCH.FROM.ADDIN(4,{5,4,3,2,1})</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" cm="1">
+        <f t="array" ref="B6">_xll.XMATCH.FROM.ADDIN(4.5,{5,4,3,2,1},1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
